--- a/ResultadoEleicoesDistritos/GUARDA_GUARDA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_GUARDA.xlsx
@@ -597,64 +597,64 @@
         <v>11058</v>
       </c>
       <c r="H2" t="n">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="I2" t="n">
-        <v>1056</v>
+        <v>1144</v>
       </c>
       <c r="J2" t="n">
-        <v>4480</v>
+        <v>4648</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="M2" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N2" t="n">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="S2" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="T2" t="n">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="U2" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="V2" t="n">
-        <v>7198</v>
+        <v>7003</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>7211</v>
+        <v>6955</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
